--- a/git_2509/01.Excelの基本操作_全60問.xlsx
+++ b/git_2509/01.Excelの基本操作_全60問.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\PG_cdp\git_2025\git_2509\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C60309E2-B4D2-4A24-A4B7-A966F9A81FF6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F10B0A9-F042-4000-9D13-C93761F2741A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-31586" yWindow="-4174" windowWidth="26932" windowHeight="13808" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="9120" yWindow="60" windowWidth="11745" windowHeight="10800" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="第1問" sheetId="1" r:id="rId1"/>
@@ -79,23 +79,12 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="420" uniqueCount="354">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="425" uniqueCount="358">
   <si>
     <t>第1問</t>
   </si>
@@ -1157,6 +1146,22 @@
   </si>
   <si>
     <t>D. 保存 → 検索バーに入力 → 結果クリック</t>
+  </si>
+  <si>
+    <t>A</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>C</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>D</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>A</t>
+    <phoneticPr fontId="3"/>
   </si>
 </sst>
 </file>
@@ -1531,51 +1536,53 @@
   <dimension ref="A1:A20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A27" sqref="A27"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="54" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
+      <selection activeCell="A12" sqref="A12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="54" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A4" s="2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A4" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A20" s="3"/>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A20" s="3" t="s">
+        <v>354</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="3"/>
@@ -1598,47 +1605,47 @@
       <selection activeCell="A27" sqref="A27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="54" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="54" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A4" s="2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A4" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A20" s="3"/>
     </row>
   </sheetData>
@@ -1661,47 +1668,47 @@
       <selection activeCell="A27" sqref="A27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="54" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="54" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A4" s="2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A4" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A20" s="3"/>
     </row>
   </sheetData>
@@ -1721,50 +1728,50 @@
   <dimension ref="A1:A20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A27" sqref="A27"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="54" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
+      <selection activeCell="A16" sqref="A16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="54" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A4" s="2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A4" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A20" s="3"/>
     </row>
   </sheetData>
@@ -1787,47 +1794,47 @@
       <selection activeCell="A27" sqref="A27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="54" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="54" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A4" s="2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A4" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A20" s="3"/>
     </row>
   </sheetData>
@@ -1850,47 +1857,47 @@
       <selection activeCell="A27" sqref="A27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="54" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="54" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A4" s="2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A4" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A20" s="3"/>
     </row>
   </sheetData>
@@ -1913,47 +1920,47 @@
       <selection activeCell="A27" sqref="A27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="54" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="54" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A4" s="2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A4" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A20" s="3"/>
     </row>
   </sheetData>
@@ -1976,47 +1983,47 @@
       <selection activeCell="A27" sqref="A27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="54" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="54" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A4" s="2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A4" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A20" s="3"/>
     </row>
   </sheetData>
@@ -2039,47 +2046,47 @@
       <selection activeCell="A27" sqref="A27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="54" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="54" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A4" s="2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A4" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A20" s="3"/>
     </row>
   </sheetData>
@@ -2102,47 +2109,47 @@
       <selection activeCell="A27" sqref="A27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="54" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="54" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A4" s="2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A4" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A20" s="3"/>
     </row>
   </sheetData>
@@ -2165,47 +2172,47 @@
       <selection activeCell="A27" sqref="A27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="54" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="54" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A4" s="2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A4" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A20" s="3"/>
     </row>
   </sheetData>
@@ -2224,52 +2231,54 @@
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:A20"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A27" sqref="A27"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="54" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="A8" sqref="A8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="54" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A4" s="2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A4" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A20" s="3"/>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A20" s="3" t="s">
+        <v>355</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="3"/>
@@ -2291,47 +2300,47 @@
       <selection activeCell="A27" sqref="A27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="54" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="54" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A4" s="2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A4" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A20" s="3"/>
     </row>
   </sheetData>
@@ -2354,47 +2363,47 @@
       <selection activeCell="A27" sqref="A27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="54" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="54" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A4" s="2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A4" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A20" s="3"/>
     </row>
   </sheetData>
@@ -2417,47 +2426,47 @@
       <selection activeCell="A27" sqref="A27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="54" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="54" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A4" s="2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A4" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A20" s="3"/>
     </row>
   </sheetData>
@@ -2480,47 +2489,47 @@
       <selection activeCell="A27" sqref="A27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="54" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="54" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A4" s="2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A4" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A20" s="3"/>
     </row>
   </sheetData>
@@ -2543,47 +2552,47 @@
       <selection activeCell="A27" sqref="A27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="54" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="54" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A4" s="2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A4" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A20" s="3"/>
     </row>
   </sheetData>
@@ -2606,47 +2615,47 @@
       <selection activeCell="A27" sqref="A27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="54" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="54" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A4" s="2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A4" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A20" s="3"/>
     </row>
   </sheetData>
@@ -2669,47 +2678,47 @@
       <selection activeCell="A27" sqref="A27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="54" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="54" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A4" s="2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A4" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A20" s="3"/>
     </row>
   </sheetData>
@@ -2732,47 +2741,47 @@
       <selection activeCell="A27" sqref="A27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="54" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="54" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A4" s="2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A4" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A20" s="3"/>
     </row>
   </sheetData>
@@ -2795,47 +2804,47 @@
       <selection activeCell="A27" sqref="A27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="54" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="54" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A4" s="2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A4" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A20" s="3"/>
     </row>
   </sheetData>
@@ -2858,47 +2867,47 @@
       <selection activeCell="A27" sqref="A27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="54" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="54" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A4" s="2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A4" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A20" s="3"/>
     </row>
   </sheetData>
@@ -2918,51 +2927,53 @@
   <dimension ref="A1:A20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A27" sqref="A27"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="54" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
+      <selection activeCell="A24" sqref="A24"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="54" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A4" s="2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A4" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A20" s="3"/>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A20" s="3" t="s">
+        <v>356</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="3"/>
@@ -2984,47 +2995,47 @@
       <selection activeCell="A27" sqref="A27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="54" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="54" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
         <v>172</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A4" s="2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A4" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A20" s="3"/>
     </row>
   </sheetData>
@@ -3047,47 +3058,47 @@
       <selection activeCell="A27" sqref="A27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="54" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="54" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A4" s="2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A4" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A20" s="3"/>
     </row>
   </sheetData>
@@ -3110,47 +3121,47 @@
       <selection activeCell="A27" sqref="A27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="54" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="54" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
         <v>184</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A4" s="2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A4" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
         <v>188</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A20" s="3"/>
     </row>
   </sheetData>
@@ -3173,47 +3184,47 @@
       <selection activeCell="A27" sqref="A27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="54" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="54" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>189</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
         <v>190</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A4" s="2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A4" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
         <v>191</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
         <v>192</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
         <v>194</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A20" s="3"/>
     </row>
   </sheetData>
@@ -3236,47 +3247,47 @@
       <selection activeCell="A27" sqref="A27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="54" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="54" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
         <v>196</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A4" s="2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A4" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
         <v>197</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
         <v>198</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
         <v>199</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
         <v>200</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A20" s="3"/>
     </row>
   </sheetData>
@@ -3299,47 +3310,47 @@
       <selection activeCell="A27" sqref="A27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="54" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="54" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A4" s="2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A4" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
         <v>205</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
         <v>206</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A20" s="3"/>
     </row>
   </sheetData>
@@ -3362,47 +3373,47 @@
       <selection activeCell="A27" sqref="A27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="54" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="54" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
         <v>208</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A4" s="2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A4" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
         <v>210</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
         <v>211</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
         <v>212</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A20" s="3"/>
     </row>
   </sheetData>
@@ -3425,47 +3436,47 @@
       <selection activeCell="A27" sqref="A27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="54" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="54" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>213</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
         <v>214</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A4" s="2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A4" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
         <v>216</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
         <v>217</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
         <v>218</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A20" s="3"/>
     </row>
   </sheetData>
@@ -3488,47 +3499,47 @@
       <selection activeCell="A27" sqref="A27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="54" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="54" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>219</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
         <v>220</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A4" s="2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A4" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
         <v>221</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
         <v>222</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
         <v>223</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
         <v>224</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A20" s="3"/>
     </row>
   </sheetData>
@@ -3551,47 +3562,47 @@
       <selection activeCell="A27" sqref="A27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="54" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="54" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>225</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
         <v>226</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A4" s="2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A4" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
         <v>227</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
         <v>228</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
         <v>229</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
         <v>230</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A20" s="3"/>
     </row>
   </sheetData>
@@ -3611,51 +3622,53 @@
   <dimension ref="A1:A20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A27" sqref="A27"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="54" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
+      <selection activeCell="A25" sqref="A25"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="54" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A4" s="2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A4" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A20" s="3"/>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A20" s="3" t="s">
+        <v>357</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="3"/>
@@ -3677,47 +3690,47 @@
       <selection activeCell="A27" sqref="A27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="54" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="54" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>231</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
         <v>232</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A4" s="2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A4" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
         <v>233</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
         <v>234</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
         <v>235</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
         <v>236</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A20" s="3"/>
     </row>
   </sheetData>
@@ -3740,47 +3753,47 @@
       <selection activeCell="A27" sqref="A27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="54" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="54" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>237</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
         <v>238</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A4" s="2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A4" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
         <v>239</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
         <v>240</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
         <v>241</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
         <v>242</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A20" s="3"/>
     </row>
   </sheetData>
@@ -3803,47 +3816,47 @@
       <selection activeCell="A27" sqref="A27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="54" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="54" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>243</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
         <v>244</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A4" s="2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A4" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
         <v>245</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
         <v>246</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
         <v>247</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
         <v>248</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A20" s="3"/>
     </row>
   </sheetData>
@@ -3866,47 +3879,47 @@
       <selection activeCell="A27" sqref="A27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="54" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="54" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>249</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
         <v>250</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A4" s="2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A4" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
         <v>251</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
         <v>252</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
         <v>253</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
         <v>254</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A20" s="3"/>
     </row>
   </sheetData>
@@ -3929,47 +3942,47 @@
       <selection activeCell="A27" sqref="A27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="54" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="54" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>255</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
         <v>256</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A4" s="2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A4" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
         <v>257</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
         <v>258</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
         <v>259</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
         <v>260</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A20" s="3"/>
     </row>
   </sheetData>
@@ -3992,47 +4005,47 @@
       <selection activeCell="A27" sqref="A27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="54" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="54" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>261</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
         <v>262</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A4" s="2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A4" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
         <v>263</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
         <v>264</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
         <v>265</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
         <v>266</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A20" s="3"/>
     </row>
   </sheetData>
@@ -4055,47 +4068,47 @@
       <selection activeCell="A27" sqref="A27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="54" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="54" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>267</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
         <v>268</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A4" s="2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A4" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
         <v>269</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
         <v>270</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
         <v>271</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A20" s="3"/>
     </row>
   </sheetData>
@@ -4118,47 +4131,47 @@
       <selection activeCell="A27" sqref="A27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="54" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="54" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>272</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
         <v>273</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A4" s="2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A4" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
         <v>274</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
         <v>275</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
         <v>276</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
         <v>277</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A20" s="3"/>
     </row>
   </sheetData>
@@ -4181,47 +4194,47 @@
       <selection activeCell="A27" sqref="A27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="54" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="54" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>278</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
         <v>279</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A4" s="2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A4" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
         <v>280</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
         <v>281</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
         <v>282</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
         <v>283</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A20" s="3"/>
     </row>
   </sheetData>
@@ -4244,47 +4257,47 @@
       <selection activeCell="A27" sqref="A27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="54" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="54" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>284</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
         <v>285</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A4" s="2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A4" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
         <v>286</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
         <v>287</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
         <v>288</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A20" s="3"/>
     </row>
   </sheetData>
@@ -4304,51 +4317,53 @@
   <dimension ref="A1:A20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A27" sqref="A27"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="54" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
+      <selection activeCell="A20" sqref="A20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="54" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A4" s="2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A4" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A20" s="3"/>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A20" s="3" t="s">
+        <v>357</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="3"/>
@@ -4370,47 +4385,47 @@
       <selection activeCell="A27" sqref="A27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="54" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="54" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>289</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
         <v>290</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A4" s="2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A4" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
         <v>291</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
         <v>292</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
         <v>293</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
         <v>294</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A20" s="3"/>
     </row>
   </sheetData>
@@ -4433,47 +4448,47 @@
       <selection activeCell="A27" sqref="A27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="54" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="54" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>295</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
         <v>296</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A4" s="2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A4" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
         <v>297</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
         <v>298</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
         <v>299</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
         <v>300</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A20" s="3"/>
     </row>
   </sheetData>
@@ -4496,47 +4511,47 @@
       <selection activeCell="A27" sqref="A27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="54" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="54" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>301</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
         <v>302</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A4" s="2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A4" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
         <v>303</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
         <v>304</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
         <v>305</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
         <v>306</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A20" s="3"/>
     </row>
   </sheetData>
@@ -4559,47 +4574,47 @@
       <selection activeCell="A27" sqref="A27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="54" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="54" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>307</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
         <v>308</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A4" s="2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A4" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
         <v>309</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
         <v>310</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
         <v>311</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
         <v>312</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A20" s="3"/>
     </row>
   </sheetData>
@@ -4622,47 +4637,47 @@
       <selection activeCell="A27" sqref="A27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="54" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="54" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>313</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
         <v>314</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A4" s="2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A4" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
         <v>315</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
         <v>316</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
         <v>317</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
         <v>318</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A20" s="3"/>
     </row>
   </sheetData>
@@ -4685,47 +4700,47 @@
       <selection activeCell="A27" sqref="A27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="54" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="54" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>319</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
         <v>320</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A4" s="2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A4" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
         <v>321</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
         <v>322</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
         <v>323</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
         <v>324</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A20" s="3"/>
     </row>
   </sheetData>
@@ -4748,47 +4763,47 @@
       <selection activeCell="A27" sqref="A27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="54" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="54" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>325</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
         <v>326</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A4" s="2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A4" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
         <v>327</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
         <v>328</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
         <v>329</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
         <v>330</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A20" s="3"/>
     </row>
   </sheetData>
@@ -4811,47 +4826,47 @@
       <selection activeCell="A27" sqref="A27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="54" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="54" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>331</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
         <v>332</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A4" s="2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A4" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
         <v>333</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
         <v>334</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
         <v>335</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
         <v>336</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A20" s="3"/>
     </row>
   </sheetData>
@@ -4874,47 +4889,47 @@
       <selection activeCell="A27" sqref="A27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="54" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="54" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>337</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
         <v>338</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A4" s="2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A4" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
         <v>339</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
         <v>340</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
         <v>341</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A20" s="3"/>
     </row>
   </sheetData>
@@ -4937,47 +4952,47 @@
       <selection activeCell="A27" sqref="A27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="54" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="54" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>342</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
         <v>343</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A4" s="2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A4" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
         <v>344</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
         <v>345</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
         <v>346</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
         <v>347</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A20" s="3"/>
     </row>
   </sheetData>
@@ -5000,47 +5015,47 @@
       <selection activeCell="A27" sqref="A27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="54" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="54" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A4" s="2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A4" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A20" s="3"/>
     </row>
   </sheetData>
@@ -5063,47 +5078,47 @@
       <selection activeCell="A27" sqref="A27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="54" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="54" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>348</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
         <v>349</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A4" s="2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A4" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
         <v>350</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
         <v>351</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
         <v>352</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
         <v>353</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A20" s="3"/>
     </row>
   </sheetData>
@@ -5126,47 +5141,47 @@
       <selection activeCell="A27" sqref="A27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="54" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="54" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A4" s="2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A4" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A20" s="3"/>
     </row>
   </sheetData>
@@ -5189,47 +5204,47 @@
       <selection activeCell="A27" sqref="A27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="54" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="54" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A4" s="2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A4" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A20" s="3"/>
     </row>
   </sheetData>
@@ -5252,47 +5267,47 @@
       <selection activeCell="A27" sqref="A27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="54" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="54" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A4" s="2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A4" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A20" s="3"/>
     </row>
   </sheetData>

--- a/git_2509/01.Excelの基本操作_全60問.xlsx
+++ b/git_2509/01.Excelの基本操作_全60問.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\PG_cdp\git_2025\git_2509\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F10B0A9-F042-4000-9D13-C93761F2741A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{496AD34A-9B65-4FD0-AA97-3C2525942D8F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9120" yWindow="60" windowWidth="11745" windowHeight="10800" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1965" yWindow="75" windowWidth="11745" windowHeight="10800" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="第1問" sheetId="1" r:id="rId1"/>
@@ -84,7 +84,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="425" uniqueCount="358">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="450" uniqueCount="370">
   <si>
     <t>第1問</t>
   </si>
@@ -1161,6 +1161,51 @@
   </si>
   <si>
     <t>A</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>D</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>B</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>A</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>C</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>A</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>B</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>D</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>C</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>D</t>
+  </si>
+  <si>
+    <t>C</t>
     <phoneticPr fontId="3"/>
   </si>
 </sst>
@@ -1535,8 +1580,8 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:A20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1602,7 +1647,7 @@
   <dimension ref="A1:A20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A27" sqref="A27"/>
+      <selection activeCell="A20" sqref="A20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1646,7 +1691,9 @@
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A20" s="3"/>
+      <c r="A20" s="3" t="s">
+        <v>361</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="3"/>
@@ -1665,7 +1712,7 @@
   <dimension ref="A1:A20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A27" sqref="A27"/>
+      <selection activeCell="A20" sqref="A20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1709,7 +1756,9 @@
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A20" s="3"/>
+      <c r="A20" s="3" t="s">
+        <v>358</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="3"/>
@@ -1728,7 +1777,7 @@
   <dimension ref="A1:A20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A16" sqref="A16"/>
+      <selection activeCell="A20" sqref="A20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1772,7 +1821,9 @@
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A20" s="3"/>
+      <c r="A20" s="3" t="s">
+        <v>361</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="3"/>
@@ -1854,7 +1905,7 @@
   <dimension ref="A1:A20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A27" sqref="A27"/>
+      <selection activeCell="A20" sqref="A20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1898,7 +1949,9 @@
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A20" s="3"/>
+      <c r="A20" s="3" t="s">
+        <v>362</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="3"/>
@@ -1917,7 +1970,7 @@
   <dimension ref="A1:A20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A27" sqref="A27"/>
+      <selection activeCell="A20" sqref="A20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1961,7 +2014,9 @@
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A20" s="3"/>
+      <c r="A20" s="3" t="s">
+        <v>363</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="3"/>
@@ -1980,7 +2035,7 @@
   <dimension ref="A1:A20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A27" sqref="A27"/>
+      <selection activeCell="A20" sqref="A20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2024,7 +2079,9 @@
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A20" s="3"/>
+      <c r="A20" s="3" t="s">
+        <v>362</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="3"/>
@@ -2043,7 +2100,7 @@
   <dimension ref="A1:A20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A27" sqref="A27"/>
+      <selection activeCell="A20" sqref="A20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2087,7 +2144,9 @@
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A20" s="3"/>
+      <c r="A20" s="3" t="s">
+        <v>364</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="3"/>
@@ -2106,7 +2165,7 @@
   <dimension ref="A1:A20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A27" sqref="A27"/>
+      <selection activeCell="A20" sqref="A20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2150,7 +2209,9 @@
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A20" s="3"/>
+      <c r="A20" s="3" t="s">
+        <v>365</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="3"/>
@@ -2169,7 +2230,7 @@
   <dimension ref="A1:A20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A27" sqref="A27"/>
+      <selection activeCell="A20" sqref="A20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2213,7 +2274,9 @@
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A20" s="3"/>
+      <c r="A20" s="3" t="s">
+        <v>365</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="3"/>
@@ -2297,7 +2360,7 @@
   <dimension ref="A1:A20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A27" sqref="A27"/>
+      <selection activeCell="A20" sqref="A20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2341,7 +2404,9 @@
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A20" s="3"/>
+      <c r="A20" s="3" t="s">
+        <v>362</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="3"/>
@@ -2360,7 +2425,7 @@
   <dimension ref="A1:A20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A27" sqref="A27"/>
+      <selection activeCell="A20" sqref="A20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2404,7 +2469,9 @@
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A20" s="3"/>
+      <c r="A20" s="3" t="s">
+        <v>363</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="3"/>
@@ -2423,7 +2490,7 @@
   <dimension ref="A1:A20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A27" sqref="A27"/>
+      <selection activeCell="A20" sqref="A20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2467,7 +2534,9 @@
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A20" s="3"/>
+      <c r="A20" s="3" t="s">
+        <v>362</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="3"/>
@@ -2486,7 +2555,7 @@
   <dimension ref="A1:A20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A27" sqref="A27"/>
+      <selection activeCell="A18" sqref="A18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2530,7 +2599,9 @@
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A20" s="3"/>
+      <c r="A20" s="3" t="s">
+        <v>365</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="3"/>
@@ -2549,7 +2620,7 @@
   <dimension ref="A1:A20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A27" sqref="A27"/>
+      <selection activeCell="A20" sqref="A20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2593,7 +2664,9 @@
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A20" s="3"/>
+      <c r="A20" s="3" t="s">
+        <v>369</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="3"/>
@@ -2612,7 +2685,7 @@
   <dimension ref="A1:A20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A27" sqref="A27"/>
+      <selection activeCell="A20" sqref="A20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2656,7 +2729,9 @@
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A20" s="3"/>
+      <c r="A20" s="3" t="s">
+        <v>367</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="3"/>
@@ -2675,7 +2750,7 @@
   <dimension ref="A1:A20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A27" sqref="A27"/>
+      <selection activeCell="A20" sqref="A20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2719,7 +2794,9 @@
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A20" s="3"/>
+      <c r="A20" s="3" t="s">
+        <v>367</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="3"/>
@@ -2738,7 +2815,7 @@
   <dimension ref="A1:A20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A27" sqref="A27"/>
+      <selection activeCell="A20" sqref="A20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2782,7 +2859,9 @@
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A20" s="3"/>
+      <c r="A20" s="3" t="s">
+        <v>368</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="3"/>
@@ -2801,7 +2880,7 @@
   <dimension ref="A1:A20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A27" sqref="A27"/>
+      <selection activeCell="A20" sqref="A20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2845,7 +2924,9 @@
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A20" s="3"/>
+      <c r="A20" s="3" t="s">
+        <v>366</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="3"/>
@@ -2864,7 +2945,7 @@
   <dimension ref="A1:A20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A27" sqref="A27"/>
+      <selection activeCell="A20" sqref="A20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2908,7 +2989,9 @@
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A20" s="3"/>
+      <c r="A20" s="3" t="s">
+        <v>366</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="3"/>
@@ -2992,7 +3075,7 @@
   <dimension ref="A1:A20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A27" sqref="A27"/>
+      <selection activeCell="A24" sqref="A24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -3036,7 +3119,9 @@
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A20" s="3"/>
+      <c r="A20" s="3" t="s">
+        <v>367</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="3"/>
@@ -3099,7 +3184,9 @@
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A20" s="3"/>
+      <c r="A20" s="3" t="s">
+        <v>366</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="3"/>
@@ -5012,7 +5099,7 @@
   <dimension ref="A1:A20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A27" sqref="A27"/>
+      <selection activeCell="A20" sqref="A20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -5056,7 +5143,9 @@
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A20" s="3"/>
+      <c r="A20" s="3" t="s">
+        <v>358</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="3"/>
@@ -5138,7 +5227,7 @@
   <dimension ref="A1:A20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A27" sqref="A27"/>
+      <selection activeCell="A20" sqref="A20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -5182,7 +5271,9 @@
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A20" s="3"/>
+      <c r="A20" s="3" t="s">
+        <v>359</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="3"/>
@@ -5201,7 +5292,7 @@
   <dimension ref="A1:A20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A27" sqref="A27"/>
+      <selection activeCell="A20" sqref="A20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -5245,7 +5336,9 @@
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A20" s="3"/>
+      <c r="A20" s="3" t="s">
+        <v>359</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="3"/>
@@ -5264,7 +5357,7 @@
   <dimension ref="A1:A20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A27" sqref="A27"/>
+      <selection activeCell="A20" sqref="A20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -5308,7 +5401,9 @@
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A20" s="3"/>
+      <c r="A20" s="3" t="s">
+        <v>360</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="3"/>
